--- a/Webscraping with BeautifulSoup/AlertSheet.xlsx
+++ b/Webscraping with BeautifulSoup/AlertSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\GitHub\Python-Diverses\Webscraping with BeautifulSoup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AFD640-5C83-485D-B149-5C93B4225BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E16BF-B950-432D-8FA3-7F7579326B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Alerted Stock</t>
   </si>
@@ -179,13 +179,25 @@
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>rapid1898@gmail.com</t>
+  </si>
+  <si>
+    <t>MAILTO</t>
+  </si>
+  <si>
+    <t>APP-PW</t>
+  </si>
+  <si>
+    <t>rvknapzlbzttxbtw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +219,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -263,12 +290,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,10 +309,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,12 +782,31 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{A76409F6-222E-43E8-84AD-E54F2941B7AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -762,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,11 +916,6 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
